--- a/JavaPlusDSASheet.xlsx
+++ b/JavaPlusDSASheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHWIN\OneDrive\Desktop\Java cmd\DSA Code\CodeWithAshwin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755B450-FA73-4732-960D-EC52C699363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47641F6E-506F-4F1C-9A4D-C1E2DA8C788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="891">
   <si>
     <t>Java Plus DSA Sheet By Shashwat Tiwari</t>
   </si>
@@ -2690,13 +2690,16 @@
   </si>
   <si>
     <t>Observation and tricks</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2754,6 +2757,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2778,10 +2795,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2796,12 +2814,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2819,8 +2831,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3036,27 +3056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="77.265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="78.1328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="8" customWidth="1"/>
-    <col min="5" max="7" width="8.86328125" style="8" customWidth="1"/>
-    <col min="8" max="29" width="8.73046875" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="14.3984375" style="8"/>
+    <col min="1" max="2" width="77.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="78.1328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="6" customWidth="1"/>
+    <col min="5" max="7" width="8.86328125" style="6" customWidth="1"/>
+    <col min="8" max="29" width="8.73046875" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="14.3984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3130,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5"/>
@@ -3527,7 +3547,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="5"/>
@@ -3661,7 +3681,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="5"/>
@@ -3828,7 +3848,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="5"/>
@@ -4127,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="5"/>
@@ -4162,7 +4182,7 @@
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -4195,7 +4215,7 @@
       <c r="C35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -4228,7 +4248,7 @@
       <c r="C36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -4261,7 +4281,7 @@
       <c r="C37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -4294,7 +4314,7 @@
       <c r="C38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -4327,7 +4347,7 @@
       <c r="C39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -4360,7 +4380,7 @@
       <c r="C40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -4393,7 +4413,7 @@
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -4426,7 +4446,7 @@
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -5155,8 +5175,8 @@
       <c r="AC63" s="5"/>
     </row>
     <row r="64" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -5193,7 +5213,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="5"/>
@@ -7407,7 +7427,9 @@
     <row r="132" spans="1:29" ht="14.25" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="C132" s="13" t="s">
+        <v>890</v>
+      </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -8575,7 +8597,7 @@
         <v>186</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E167" s="5"/>
@@ -8740,7 +8762,7 @@
       <c r="B172" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E172" s="5"/>
@@ -8774,7 +8796,7 @@
       <c r="B173" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="7" t="s">
         <v>195</v>
       </c>
       <c r="E173" s="5"/>
@@ -8808,7 +8830,7 @@
       <c r="B174" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="7" t="s">
         <v>197</v>
       </c>
       <c r="E174" s="5"/>
@@ -8842,7 +8864,7 @@
       <c r="B175" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E175" s="5"/>
@@ -8876,7 +8898,7 @@
       <c r="B176" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="7" t="s">
         <v>201</v>
       </c>
       <c r="E176" s="5"/>
@@ -8942,7 +8964,7 @@
         <v>202</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E178" s="5"/>
@@ -9076,7 +9098,7 @@
         <v>207</v>
       </c>
       <c r="C182" s="5"/>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E182" s="5"/>
@@ -9273,7 +9295,7 @@
       <c r="B188" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="7" t="s">
         <v>214</v>
       </c>
       <c r="E188" s="5"/>
@@ -9307,7 +9329,7 @@
       <c r="B189" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E189" s="5"/>
@@ -9375,7 +9397,7 @@
         <v>218</v>
       </c>
       <c r="C191" s="5"/>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="7" t="s">
         <v>219</v>
       </c>
       <c r="E191" s="5"/>
@@ -9506,7 +9528,7 @@
         <v>222</v>
       </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E195" s="5"/>
@@ -9668,7 +9690,7 @@
         <v>227</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E200" s="5"/>
@@ -9802,7 +9824,7 @@
         <v>232</v>
       </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="7" t="s">
         <v>233</v>
       </c>
       <c r="E204" s="5"/>
@@ -10098,7 +10120,7 @@
       <c r="B213" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="7" t="s">
         <v>243</v>
       </c>
       <c r="E213" s="5"/>
@@ -10132,7 +10154,7 @@
       <c r="B214" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D214" s="7" t="s">
         <v>245</v>
       </c>
       <c r="E214" s="5"/>
@@ -10166,7 +10188,7 @@
       <c r="B215" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E215" s="5"/>
@@ -10200,7 +10222,7 @@
       <c r="B216" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D216" s="9" t="s">
+      <c r="D216" s="7" t="s">
         <v>249</v>
       </c>
       <c r="E216" s="5"/>
@@ -10234,7 +10256,7 @@
       <c r="B217" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="7" t="s">
         <v>251</v>
       </c>
       <c r="E217" s="5"/>
@@ -10268,7 +10290,7 @@
       <c r="B218" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E218" s="5"/>
@@ -10302,7 +10324,7 @@
       <c r="B219" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D219" s="7" t="s">
         <v>255</v>
       </c>
       <c r="E219" s="5"/>
@@ -10336,7 +10358,7 @@
       <c r="B220" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D220" s="9" t="s">
+      <c r="D220" s="7" t="s">
         <v>257</v>
       </c>
       <c r="E220" s="5"/>
@@ -10370,7 +10392,7 @@
       <c r="B221" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="7" t="s">
         <v>259</v>
       </c>
       <c r="E221" s="5"/>
@@ -10405,7 +10427,7 @@
         <v>260</v>
       </c>
       <c r="C222" s="5"/>
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="7" t="s">
         <v>261</v>
       </c>
       <c r="E222" s="5"/>
@@ -10609,7 +10631,7 @@
         <v>268</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E228" s="5"/>
@@ -10939,7 +10961,7 @@
         <v>278</v>
       </c>
       <c r="C238" s="5"/>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="7" t="s">
         <v>279</v>
       </c>
       <c r="E238" s="5"/>
@@ -11500,7 +11522,7 @@
         <v>295</v>
       </c>
       <c r="C255" s="5"/>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="7" t="s">
         <v>296</v>
       </c>
       <c r="E255" s="5"/>
@@ -11664,7 +11686,7 @@
       <c r="B260" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D260" s="9" t="s">
+      <c r="D260" s="7" t="s">
         <v>301</v>
       </c>
       <c r="E260" s="5"/>
@@ -11698,7 +11720,7 @@
       <c r="B261" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="D261" s="7" t="s">
         <v>303</v>
       </c>
       <c r="E261" s="5"/>
@@ -11732,7 +11754,7 @@
       <c r="B262" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D262" s="7" t="s">
         <v>305</v>
       </c>
       <c r="E262" s="5"/>
@@ -11766,7 +11788,7 @@
       <c r="B263" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D263" s="9" t="s">
+      <c r="D263" s="7" t="s">
         <v>307</v>
       </c>
       <c r="E263" s="5"/>
@@ -11800,7 +11822,7 @@
       <c r="B264" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="7" t="s">
         <v>309</v>
       </c>
       <c r="E264" s="5"/>
@@ -11834,7 +11856,7 @@
       <c r="B265" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="D265" s="7" t="s">
         <v>311</v>
       </c>
     </row>
@@ -11877,7 +11899,7 @@
         <v>313</v>
       </c>
       <c r="C267" s="5"/>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="7" t="s">
         <v>314</v>
       </c>
       <c r="E267" s="5"/>
@@ -11977,7 +11999,7 @@
       <c r="B270" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="7" t="s">
         <v>317</v>
       </c>
       <c r="E270" s="5"/>
@@ -12011,7 +12033,7 @@
       <c r="B271" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="7" t="s">
         <v>319</v>
       </c>
       <c r="E271" s="5"/>
@@ -12045,7 +12067,7 @@
       <c r="B272" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="7" t="s">
         <v>321</v>
       </c>
       <c r="E272" s="5"/>
@@ -12079,7 +12101,7 @@
       <c r="B273" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="7" t="s">
         <v>323</v>
       </c>
       <c r="E273" s="5"/>
@@ -12113,7 +12135,7 @@
       <c r="B274" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="7" t="s">
         <v>325</v>
       </c>
       <c r="E274" s="5"/>
@@ -12147,7 +12169,7 @@
       <c r="B275" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="7" t="s">
         <v>327</v>
       </c>
       <c r="E275" s="5"/>
@@ -12181,7 +12203,7 @@
       <c r="B276" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="D276" s="7" t="s">
         <v>329</v>
       </c>
       <c r="E276" s="5"/>
@@ -12215,7 +12237,7 @@
       <c r="B277" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="7" t="s">
         <v>331</v>
       </c>
       <c r="E277" s="5"/>
@@ -12249,7 +12271,7 @@
       <c r="B278" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="7" t="s">
         <v>333</v>
       </c>
       <c r="E278" s="5"/>
@@ -12283,7 +12305,7 @@
       <c r="B279" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="7" t="s">
         <v>335</v>
       </c>
       <c r="E279" s="5"/>
@@ -12317,7 +12339,7 @@
       <c r="B280" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E280" s="5"/>
@@ -12351,7 +12373,7 @@
       <c r="B281" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="7" t="s">
         <v>339</v>
       </c>
       <c r="E281" s="5"/>
@@ -12385,7 +12407,7 @@
       <c r="B282" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D282" s="9" t="s">
+      <c r="D282" s="7" t="s">
         <v>341</v>
       </c>
       <c r="E282" s="5"/>
@@ -12453,7 +12475,7 @@
         <v>343</v>
       </c>
       <c r="C284" s="5"/>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="7" t="s">
         <v>344</v>
       </c>
       <c r="E284" s="5"/>
@@ -12619,7 +12641,7 @@
       <c r="B289" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E289" s="5"/>
@@ -12653,7 +12675,7 @@
       <c r="B290" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="D290" s="7" t="s">
         <v>351</v>
       </c>
       <c r="E290" s="5"/>
@@ -12892,7 +12914,7 @@
       <c r="B297" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="7" t="s">
         <v>360</v>
       </c>
       <c r="E297" s="5"/>
@@ -12926,7 +12948,7 @@
       <c r="B298" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="D298" s="7" t="s">
         <v>362</v>
       </c>
       <c r="E298" s="5"/>
@@ -12960,7 +12982,7 @@
       <c r="B299" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D299" s="9" t="s">
+      <c r="D299" s="7" t="s">
         <v>364</v>
       </c>
       <c r="E299" s="5"/>
@@ -12994,7 +13016,7 @@
       <c r="B300" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D300" s="9" t="s">
+      <c r="D300" s="7" t="s">
         <v>366</v>
       </c>
       <c r="E300" s="5"/>
@@ -13028,7 +13050,7 @@
       <c r="B301" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="7" t="s">
         <v>368</v>
       </c>
       <c r="E301" s="5"/>
@@ -13062,7 +13084,7 @@
       <c r="B302" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D302" s="7" t="s">
         <v>370</v>
       </c>
       <c r="E302" s="5"/>
@@ -13096,7 +13118,7 @@
       <c r="B303" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D303" s="7" t="s">
         <v>372</v>
       </c>
       <c r="E303" s="5"/>
@@ -13130,7 +13152,7 @@
       <c r="B304" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D304" s="9" t="s">
+      <c r="D304" s="7" t="s">
         <v>374</v>
       </c>
       <c r="E304" s="5"/>
@@ -13164,7 +13186,7 @@
       <c r="B305" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D305" s="7" t="s">
         <v>376</v>
       </c>
       <c r="E305" s="5"/>
@@ -13198,7 +13220,7 @@
       <c r="B306" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="D306" s="7" t="s">
         <v>378</v>
       </c>
       <c r="E306" s="5"/>
@@ -13232,7 +13254,7 @@
       <c r="B307" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D307" s="7" t="s">
         <v>380</v>
       </c>
       <c r="E307" s="5"/>
@@ -13266,7 +13288,7 @@
       <c r="B308" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D308" s="7" t="s">
         <v>382</v>
       </c>
       <c r="E308" s="5"/>
@@ -13363,7 +13385,7 @@
       <c r="C311" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D311" s="9" t="s">
+      <c r="D311" s="7" t="s">
         <v>386</v>
       </c>
       <c r="E311" s="5"/>
@@ -16825,7 +16847,7 @@
     <row r="417" spans="1:29" ht="14.25" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
-      <c r="C417" s="12"/>
+      <c r="C417" s="10"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
@@ -16891,7 +16913,7 @@
       <c r="B419" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D419" s="9" t="s">
+      <c r="D419" s="7" t="s">
         <v>483</v>
       </c>
       <c r="E419" s="5"/>
@@ -17155,7 +17177,7 @@
         <v>489</v>
       </c>
       <c r="C427" s="5"/>
-      <c r="D427" s="9" t="s">
+      <c r="D427" s="7" t="s">
         <v>490</v>
       </c>
       <c r="E427" s="5"/>
@@ -17381,7 +17403,7 @@
       <c r="B434" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D434" s="9" t="s">
+      <c r="D434" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E434" s="5"/>
@@ -17415,7 +17437,7 @@
       <c r="B435" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D435" s="9" t="s">
+      <c r="D435" s="7" t="s">
         <v>497</v>
       </c>
       <c r="E435" s="5"/>
@@ -17449,7 +17471,7 @@
       <c r="B436" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D436" s="9" t="s">
+      <c r="D436" s="7" t="s">
         <v>499</v>
       </c>
       <c r="E436" s="5"/>
@@ -17483,7 +17505,7 @@
       <c r="B437" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D437" s="9" t="s">
+      <c r="D437" s="7" t="s">
         <v>501</v>
       </c>
       <c r="E437" s="5"/>
@@ -17517,7 +17539,7 @@
       <c r="B438" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D438" s="9" t="s">
+      <c r="D438" s="7" t="s">
         <v>503</v>
       </c>
       <c r="E438" s="5"/>
@@ -17551,7 +17573,7 @@
       <c r="B439" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D439" s="9" t="s">
+      <c r="D439" s="7" t="s">
         <v>505</v>
       </c>
       <c r="E439" s="5"/>
@@ -17585,7 +17607,7 @@
       <c r="B440" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D440" s="9" t="s">
+      <c r="D440" s="7" t="s">
         <v>507</v>
       </c>
       <c r="E440" s="5"/>
@@ -17619,7 +17641,7 @@
       <c r="B441" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D441" s="9" t="s">
+      <c r="D441" s="7" t="s">
         <v>509</v>
       </c>
       <c r="E441" s="5"/>
@@ -17653,7 +17675,7 @@
       <c r="B442" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D442" s="9" t="s">
+      <c r="D442" s="7" t="s">
         <v>511</v>
       </c>
       <c r="E442" s="5"/>
@@ -17687,7 +17709,7 @@
       <c r="B443" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D443" s="9" t="s">
+      <c r="D443" s="7" t="s">
         <v>513</v>
       </c>
       <c r="E443" s="5"/>
@@ -17721,7 +17743,7 @@
       <c r="B444" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D444" s="9" t="s">
+      <c r="D444" s="7" t="s">
         <v>515</v>
       </c>
       <c r="E444" s="5"/>
@@ -17755,7 +17777,7 @@
       <c r="B445" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D445" s="9" t="s">
+      <c r="D445" s="7" t="s">
         <v>517</v>
       </c>
       <c r="E445" s="5"/>
@@ -17789,7 +17811,7 @@
       <c r="B446" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D446" s="9" t="s">
+      <c r="D446" s="7" t="s">
         <v>519</v>
       </c>
       <c r="E446" s="5"/>
@@ -17823,7 +17845,7 @@
       <c r="B447" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D447" s="9" t="s">
+      <c r="D447" s="7" t="s">
         <v>521</v>
       </c>
       <c r="E447" s="5"/>
@@ -17857,7 +17879,7 @@
       <c r="B448" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="D448" s="9" t="s">
+      <c r="D448" s="7" t="s">
         <v>523</v>
       </c>
       <c r="E448" s="5"/>
@@ -17891,7 +17913,7 @@
       <c r="B449" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D449" s="9" t="s">
+      <c r="D449" s="7" t="s">
         <v>525</v>
       </c>
       <c r="E449" s="5"/>
@@ -17921,11 +17943,11 @@
       <c r="AC449" s="5"/>
     </row>
     <row r="450" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A450" s="12"/>
-      <c r="B450" s="12" t="s">
+      <c r="A450" s="10"/>
+      <c r="B450" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D450" s="9" t="s">
+      <c r="D450" s="7" t="s">
         <v>527</v>
       </c>
       <c r="E450" s="5"/>
@@ -17956,7 +17978,7 @@
     </row>
     <row r="451" spans="1:29" ht="14.25" customHeight="1">
       <c r="A451" s="5"/>
-      <c r="B451" s="12" t="s">
+      <c r="B451" s="10" t="s">
         <v>528</v>
       </c>
       <c r="D451" s="5" t="s">
@@ -18458,7 +18480,7 @@
         <v>538</v>
       </c>
       <c r="C467" s="5"/>
-      <c r="D467" s="9" t="s">
+      <c r="D467" s="7" t="s">
         <v>539</v>
       </c>
       <c r="E467" s="5"/>
@@ -18850,7 +18872,7 @@
         <v>549</v>
       </c>
       <c r="C479" s="5"/>
-      <c r="D479" s="9" t="s">
+      <c r="D479" s="7" t="s">
         <v>550</v>
       </c>
       <c r="E479" s="5"/>
@@ -18982,7 +19004,7 @@
         <v>553</v>
       </c>
       <c r="C483" s="5"/>
-      <c r="D483" s="9" t="s">
+      <c r="D483" s="7" t="s">
         <v>554</v>
       </c>
       <c r="E483" s="5"/>
@@ -19177,7 +19199,7 @@
       <c r="B489" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D489" s="9" t="s">
+      <c r="D489" s="7" t="s">
         <v>558</v>
       </c>
       <c r="E489" s="5"/>
@@ -19211,7 +19233,7 @@
       <c r="B490" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D490" s="9" t="s">
+      <c r="D490" s="7" t="s">
         <v>560</v>
       </c>
       <c r="E490" s="5"/>
@@ -19245,7 +19267,7 @@
       <c r="B491" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D491" s="9" t="s">
+      <c r="D491" s="7" t="s">
         <v>562</v>
       </c>
       <c r="E491" s="5"/>
@@ -19310,7 +19332,7 @@
       <c r="B493" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="D493" s="9" t="s">
+      <c r="D493" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E493" s="5"/>
@@ -19469,7 +19491,7 @@
       <c r="B498" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D498" s="9" t="s">
+      <c r="D498" s="7" t="s">
         <v>569</v>
       </c>
       <c r="E498" s="5"/>
@@ -19504,7 +19526,7 @@
         <v>570</v>
       </c>
       <c r="C499" s="5"/>
-      <c r="D499" s="9" t="s">
+      <c r="D499" s="7" t="s">
         <v>571</v>
       </c>
       <c r="E499" s="5"/>
@@ -19771,7 +19793,7 @@
       <c r="B507" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D507" s="9" t="s">
+      <c r="D507" s="7" t="s">
         <v>580</v>
       </c>
       <c r="E507" s="5"/>
@@ -19805,7 +19827,7 @@
       <c r="B508" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D508" s="9" t="s">
+      <c r="D508" s="7" t="s">
         <v>582</v>
       </c>
       <c r="E508" s="5"/>
@@ -19873,7 +19895,7 @@
       <c r="B510" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D510" s="9" t="s">
+      <c r="D510" s="7" t="s">
         <v>585</v>
       </c>
       <c r="E510" s="5"/>
@@ -19941,7 +19963,7 @@
       <c r="B512" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D512" s="9" t="s">
+      <c r="D512" s="7" t="s">
         <v>588</v>
       </c>
       <c r="E512" s="5"/>
@@ -20008,7 +20030,7 @@
       <c r="B514" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D514" s="9" t="s">
+      <c r="D514" s="7" t="s">
         <v>591</v>
       </c>
       <c r="E514" s="5"/>
@@ -20042,7 +20064,7 @@
       <c r="B515" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D515" s="9" t="s">
+      <c r="D515" s="7" t="s">
         <v>593</v>
       </c>
       <c r="E515" s="5"/>
@@ -20076,7 +20098,7 @@
       <c r="B516" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D516" s="9" t="s">
+      <c r="D516" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E516" s="5"/>
@@ -20110,7 +20132,7 @@
       <c r="B517" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="D517" s="9" t="s">
+      <c r="D517" s="7" t="s">
         <v>597</v>
       </c>
       <c r="E517" s="5"/>
@@ -20144,7 +20166,7 @@
       <c r="B518" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="D518" s="9" t="s">
+      <c r="D518" s="7" t="s">
         <v>599</v>
       </c>
       <c r="E518" s="5"/>
@@ -20178,7 +20200,7 @@
       <c r="B519" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="D519" s="9" t="s">
+      <c r="D519" s="7" t="s">
         <v>601</v>
       </c>
       <c r="E519" s="5"/>
@@ -20212,7 +20234,7 @@
       <c r="B520" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D520" s="9" t="s">
+      <c r="D520" s="7" t="s">
         <v>603</v>
       </c>
       <c r="E520" s="5"/>
@@ -20246,7 +20268,7 @@
       <c r="B521" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="D521" s="9" t="s">
+      <c r="D521" s="7" t="s">
         <v>605</v>
       </c>
       <c r="E521" s="5"/>
@@ -20280,7 +20302,7 @@
       <c r="B522" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D522" s="9" t="s">
+      <c r="D522" s="7" t="s">
         <v>607</v>
       </c>
       <c r="E522" s="5"/>
@@ -20314,7 +20336,7 @@
       <c r="B523" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D523" s="9" t="s">
+      <c r="D523" s="7" t="s">
         <v>608</v>
       </c>
       <c r="E523" s="5"/>
@@ -20382,7 +20404,7 @@
         <v>610</v>
       </c>
       <c r="C525" s="5"/>
-      <c r="D525" s="9" t="s">
+      <c r="D525" s="7" t="s">
         <v>611</v>
       </c>
       <c r="E525" s="5"/>
@@ -20507,7 +20529,7 @@
         <v>614</v>
       </c>
       <c r="C529" s="5"/>
-      <c r="D529" s="9" t="s">
+      <c r="D529" s="7" t="s">
         <v>615</v>
       </c>
       <c r="E529" s="5"/>
@@ -21064,7 +21086,7 @@
         <v>631</v>
       </c>
       <c r="C546" s="5"/>
-      <c r="D546" s="9" t="s">
+      <c r="D546" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E546" s="5"/>
@@ -21099,7 +21121,7 @@
         <v>633</v>
       </c>
       <c r="C547" s="5"/>
-      <c r="D547" s="9" t="s">
+      <c r="D547" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E547" s="5"/>
@@ -21134,7 +21156,7 @@
         <v>634</v>
       </c>
       <c r="C548" s="5"/>
-      <c r="D548" s="9" t="s">
+      <c r="D548" s="7" t="s">
         <v>635</v>
       </c>
       <c r="E548" s="5"/>
@@ -21169,7 +21191,7 @@
         <v>636</v>
       </c>
       <c r="C549" s="5"/>
-      <c r="D549" s="9" t="s">
+      <c r="D549" s="7" t="s">
         <v>637</v>
       </c>
       <c r="E549" s="5"/>
@@ -21204,7 +21226,7 @@
         <v>638</v>
       </c>
       <c r="C550" s="5"/>
-      <c r="D550" s="9" t="s">
+      <c r="D550" s="7" t="s">
         <v>639</v>
       </c>
       <c r="E550" s="5"/>
@@ -21239,7 +21261,7 @@
         <v>640</v>
       </c>
       <c r="C551" s="5"/>
-      <c r="D551" s="9" t="s">
+      <c r="D551" s="7" t="s">
         <v>641</v>
       </c>
       <c r="E551" s="5"/>
@@ -21274,7 +21296,7 @@
         <v>642</v>
       </c>
       <c r="C552" s="5"/>
-      <c r="D552" s="9" t="s">
+      <c r="D552" s="7" t="s">
         <v>643</v>
       </c>
       <c r="E552" s="5"/>
@@ -21309,7 +21331,7 @@
         <v>644</v>
       </c>
       <c r="C553" s="5"/>
-      <c r="D553" s="9" t="s">
+      <c r="D553" s="7" t="s">
         <v>645</v>
       </c>
       <c r="E553" s="5"/>
@@ -21344,7 +21366,7 @@
         <v>646</v>
       </c>
       <c r="C554" s="5"/>
-      <c r="D554" s="9" t="s">
+      <c r="D554" s="7" t="s">
         <v>647</v>
       </c>
       <c r="E554" s="5"/>
@@ -21381,7 +21403,7 @@
       <c r="C555" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D555" s="9" t="s">
+      <c r="D555" s="7" t="s">
         <v>650</v>
       </c>
       <c r="E555" s="5"/>
@@ -21416,7 +21438,7 @@
         <v>651</v>
       </c>
       <c r="C556" s="5"/>
-      <c r="D556" s="9" t="s">
+      <c r="D556" s="7" t="s">
         <v>652</v>
       </c>
       <c r="E556" s="5"/>
@@ -21451,7 +21473,7 @@
         <v>653</v>
       </c>
       <c r="C557" s="5"/>
-      <c r="D557" s="9" t="s">
+      <c r="D557" s="7" t="s">
         <v>654</v>
       </c>
       <c r="E557" s="5"/>
@@ -21486,7 +21508,7 @@
         <v>655</v>
       </c>
       <c r="C558" s="5"/>
-      <c r="D558" s="9" t="s">
+      <c r="D558" s="7" t="s">
         <v>656</v>
       </c>
       <c r="E558" s="5"/>
@@ -21520,7 +21542,7 @@
       <c r="B559" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D559" s="9" t="s">
+      <c r="D559" s="7" t="s">
         <v>658</v>
       </c>
       <c r="G559" s="5"/>
@@ -21551,7 +21573,7 @@
       <c r="B560" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D560" s="9" t="s">
+      <c r="D560" s="7" t="s">
         <v>660</v>
       </c>
       <c r="AC560" s="5"/>
@@ -21562,7 +21584,7 @@
         <v>661</v>
       </c>
       <c r="C561" s="5"/>
-      <c r="D561" s="9" t="s">
+      <c r="D561" s="7" t="s">
         <v>662</v>
       </c>
       <c r="E561" s="5"/>
@@ -21597,7 +21619,7 @@
         <v>663</v>
       </c>
       <c r="C562" s="5"/>
-      <c r="D562" s="9" t="s">
+      <c r="D562" s="7" t="s">
         <v>664</v>
       </c>
       <c r="E562" s="5"/>
@@ -21632,7 +21654,7 @@
         <v>665</v>
       </c>
       <c r="C563" s="5"/>
-      <c r="D563" s="9" t="s">
+      <c r="D563" s="7" t="s">
         <v>666</v>
       </c>
       <c r="E563" s="5"/>
@@ -21667,7 +21689,7 @@
         <v>667</v>
       </c>
       <c r="C564" s="5"/>
-      <c r="D564" s="9" t="s">
+      <c r="D564" s="7" t="s">
         <v>668</v>
       </c>
       <c r="E564" s="5"/>
@@ -21702,7 +21724,7 @@
         <v>669</v>
       </c>
       <c r="C565" s="5"/>
-      <c r="D565" s="9" t="s">
+      <c r="D565" s="7" t="s">
         <v>670</v>
       </c>
       <c r="E565" s="5"/>
@@ -21737,7 +21759,7 @@
         <v>671</v>
       </c>
       <c r="C566" s="5"/>
-      <c r="D566" s="9" t="s">
+      <c r="D566" s="7" t="s">
         <v>672</v>
       </c>
       <c r="E566" s="5"/>
@@ -21772,7 +21794,7 @@
         <v>673</v>
       </c>
       <c r="C567" s="5"/>
-      <c r="D567" s="9" t="s">
+      <c r="D567" s="7" t="s">
         <v>674</v>
       </c>
       <c r="E567" s="5"/>
@@ -21807,7 +21829,7 @@
         <v>675</v>
       </c>
       <c r="C568" s="5"/>
-      <c r="D568" s="9" t="s">
+      <c r="D568" s="7" t="s">
         <v>676</v>
       </c>
       <c r="E568" s="5"/>
@@ -21842,7 +21864,7 @@
         <v>677</v>
       </c>
       <c r="C569" s="5"/>
-      <c r="D569" s="9" t="s">
+      <c r="D569" s="7" t="s">
         <v>678</v>
       </c>
       <c r="E569" s="5"/>
@@ -21877,7 +21899,7 @@
         <v>679</v>
       </c>
       <c r="C570" s="5"/>
-      <c r="D570" s="9" t="s">
+      <c r="D570" s="7" t="s">
         <v>680</v>
       </c>
       <c r="E570" s="5"/>
@@ -22051,7 +22073,7 @@
       <c r="B575" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="D575" s="9" t="s">
+      <c r="D575" s="7" t="s">
         <v>686</v>
       </c>
       <c r="E575" s="5"/>
@@ -22085,7 +22107,7 @@
       <c r="B576" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="D576" s="9" t="s">
+      <c r="D576" s="7" t="s">
         <v>688</v>
       </c>
       <c r="E576" s="5"/>
@@ -22342,7 +22364,7 @@
       <c r="B584" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D584" s="9" t="s">
+      <c r="D584" s="7" t="s">
         <v>694</v>
       </c>
       <c r="E584" s="5"/>
@@ -22725,7 +22747,7 @@
       <c r="B596" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D596" s="9" t="s">
+      <c r="D596" s="7" t="s">
         <v>706</v>
       </c>
       <c r="E596" s="5"/>
@@ -22791,7 +22813,7 @@
       <c r="B598" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D598" s="9" t="s">
+      <c r="D598" s="7" t="s">
         <v>709</v>
       </c>
       <c r="E598" s="5"/>
@@ -23207,7 +23229,7 @@
       <c r="B611" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="D611" s="9" t="s">
+      <c r="D611" s="7" t="s">
         <v>722</v>
       </c>
       <c r="E611" s="5"/>
@@ -23432,7 +23454,7 @@
         <v>728</v>
       </c>
       <c r="C618" s="5"/>
-      <c r="D618" s="9" t="s">
+      <c r="D618" s="7" t="s">
         <v>729</v>
       </c>
       <c r="E618" s="5"/>
@@ -23467,7 +23489,7 @@
         <v>730</v>
       </c>
       <c r="C619" s="5"/>
-      <c r="D619" s="9" t="s">
+      <c r="D619" s="7" t="s">
         <v>731</v>
       </c>
       <c r="E619" s="5"/>
@@ -23502,7 +23524,7 @@
         <v>732</v>
       </c>
       <c r="C620" s="5"/>
-      <c r="D620" s="9" t="s">
+      <c r="D620" s="7" t="s">
         <v>733</v>
       </c>
       <c r="E620" s="5"/>
@@ -23537,7 +23559,7 @@
         <v>734</v>
       </c>
       <c r="C621" s="5"/>
-      <c r="D621" s="9" t="s">
+      <c r="D621" s="7" t="s">
         <v>735</v>
       </c>
       <c r="E621" s="5"/>
@@ -23572,7 +23594,7 @@
         <v>736</v>
       </c>
       <c r="C622" s="5"/>
-      <c r="D622" s="9" t="s">
+      <c r="D622" s="7" t="s">
         <v>737</v>
       </c>
       <c r="E622" s="5"/>
@@ -24138,7 +24160,7 @@
       <c r="B639" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="D639" s="9" t="s">
+      <c r="D639" s="7" t="s">
         <v>754</v>
       </c>
       <c r="E639" s="5"/>
@@ -24460,7 +24482,7 @@
         <v>763</v>
       </c>
       <c r="C649" s="5"/>
-      <c r="D649" s="9" t="s">
+      <c r="D649" s="7" t="s">
         <v>764</v>
       </c>
       <c r="E649" s="5"/>
@@ -24790,7 +24812,7 @@
         <v>773</v>
       </c>
       <c r="C659" s="5"/>
-      <c r="D659" s="9" t="s">
+      <c r="D659" s="7" t="s">
         <v>774</v>
       </c>
       <c r="E659" s="5"/>
@@ -24825,7 +24847,7 @@
         <v>775</v>
       </c>
       <c r="C660" s="5"/>
-      <c r="D660" s="9" t="s">
+      <c r="D660" s="7" t="s">
         <v>776</v>
       </c>
       <c r="E660" s="5"/>
@@ -24891,7 +24913,7 @@
         <v>777</v>
       </c>
       <c r="C662" s="5"/>
-      <c r="D662" s="9" t="s">
+      <c r="D662" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E662" s="5"/>
@@ -25124,7 +25146,7 @@
         <v>785</v>
       </c>
       <c r="C669" s="5"/>
-      <c r="D669" s="9" t="s">
+      <c r="D669" s="7" t="s">
         <v>786</v>
       </c>
       <c r="E669" s="5"/>
@@ -25159,7 +25181,7 @@
         <v>787</v>
       </c>
       <c r="C670" s="5"/>
-      <c r="D670" s="9" t="s">
+      <c r="D670" s="7" t="s">
         <v>788</v>
       </c>
       <c r="E670" s="5"/>
@@ -25194,7 +25216,7 @@
         <v>789</v>
       </c>
       <c r="C671" s="5"/>
-      <c r="D671" s="9" t="s">
+      <c r="D671" s="7" t="s">
         <v>790</v>
       </c>
       <c r="E671" s="5"/>
@@ -25229,7 +25251,7 @@
         <v>791</v>
       </c>
       <c r="C672" s="5"/>
-      <c r="D672" s="9" t="s">
+      <c r="D672" s="7" t="s">
         <v>792</v>
       </c>
       <c r="E672" s="5"/>
@@ -25264,7 +25286,7 @@
         <v>793</v>
       </c>
       <c r="C673" s="5"/>
-      <c r="D673" s="9" t="s">
+      <c r="D673" s="7" t="s">
         <v>794</v>
       </c>
       <c r="E673" s="5"/>
@@ -25299,7 +25321,7 @@
         <v>795</v>
       </c>
       <c r="C674" s="5"/>
-      <c r="D674" s="9" t="s">
+      <c r="D674" s="7" t="s">
         <v>796</v>
       </c>
       <c r="E674" s="5"/>
@@ -25333,7 +25355,7 @@
       <c r="B675" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="D675" s="9" t="s">
+      <c r="D675" s="7" t="s">
         <v>798</v>
       </c>
       <c r="E675" s="5"/>
@@ -25368,7 +25390,7 @@
         <v>799</v>
       </c>
       <c r="C676" s="5"/>
-      <c r="D676" s="9" t="s">
+      <c r="D676" s="7" t="s">
         <v>800</v>
       </c>
       <c r="E676" s="5"/>
@@ -25403,7 +25425,7 @@
         <v>801</v>
       </c>
       <c r="C677" s="5"/>
-      <c r="D677" s="9" t="s">
+      <c r="D677" s="7" t="s">
         <v>802</v>
       </c>
       <c r="E677" s="5"/>
@@ -25438,7 +25460,7 @@
         <v>803</v>
       </c>
       <c r="C678" s="5"/>
-      <c r="D678" s="9" t="s">
+      <c r="D678" s="7" t="s">
         <v>804</v>
       </c>
       <c r="E678" s="5"/>
@@ -25473,7 +25495,7 @@
         <v>805</v>
       </c>
       <c r="C679" s="5"/>
-      <c r="D679" s="9" t="s">
+      <c r="D679" s="7" t="s">
         <v>806</v>
       </c>
       <c r="E679" s="5"/>
@@ -25508,7 +25530,7 @@
         <v>807</v>
       </c>
       <c r="C680" s="5"/>
-      <c r="D680" s="9" t="s">
+      <c r="D680" s="7" t="s">
         <v>808</v>
       </c>
       <c r="E680" s="5"/>
@@ -25543,7 +25565,7 @@
         <v>809</v>
       </c>
       <c r="C681" s="5"/>
-      <c r="D681" s="9" t="s">
+      <c r="D681" s="7" t="s">
         <v>810</v>
       </c>
       <c r="E681" s="5"/>
@@ -25578,7 +25600,7 @@
         <v>811</v>
       </c>
       <c r="C682" s="5"/>
-      <c r="D682" s="9" t="s">
+      <c r="D682" s="7" t="s">
         <v>812</v>
       </c>
       <c r="E682" s="5"/>
@@ -25613,7 +25635,7 @@
         <v>813</v>
       </c>
       <c r="C683" s="5"/>
-      <c r="D683" s="9" t="s">
+      <c r="D683" s="7" t="s">
         <v>814</v>
       </c>
       <c r="E683" s="5"/>
@@ -25648,7 +25670,7 @@
         <v>815</v>
       </c>
       <c r="C684" s="5"/>
-      <c r="D684" s="9" t="s">
+      <c r="D684" s="7" t="s">
         <v>816</v>
       </c>
       <c r="E684" s="5"/>
@@ -25683,7 +25705,7 @@
         <v>817</v>
       </c>
       <c r="C685" s="5"/>
-      <c r="D685" s="9" t="s">
+      <c r="D685" s="7" t="s">
         <v>818</v>
       </c>
       <c r="E685" s="5"/>
@@ -25718,7 +25740,7 @@
         <v>819</v>
       </c>
       <c r="C686" s="5"/>
-      <c r="D686" s="9" t="s">
+      <c r="D686" s="7" t="s">
         <v>820</v>
       </c>
       <c r="E686" s="5"/>
@@ -25753,7 +25775,7 @@
         <v>821</v>
       </c>
       <c r="C687" s="5"/>
-      <c r="D687" s="9" t="s">
+      <c r="D687" s="7" t="s">
         <v>822</v>
       </c>
       <c r="E687" s="5"/>
@@ -25788,7 +25810,7 @@
         <v>823</v>
       </c>
       <c r="C688" s="5"/>
-      <c r="D688" s="9" t="s">
+      <c r="D688" s="7" t="s">
         <v>824</v>
       </c>
       <c r="E688" s="5"/>
@@ -25823,7 +25845,7 @@
         <v>825</v>
       </c>
       <c r="C689" s="5"/>
-      <c r="D689" s="9" t="s">
+      <c r="D689" s="7" t="s">
         <v>826</v>
       </c>
       <c r="E689" s="5"/>
@@ -25858,7 +25880,7 @@
         <v>827</v>
       </c>
       <c r="C690" s="5"/>
-      <c r="D690" s="9" t="s">
+      <c r="D690" s="7" t="s">
         <v>828</v>
       </c>
       <c r="E690" s="5"/>
@@ -25893,7 +25915,7 @@
         <v>829</v>
       </c>
       <c r="C691" s="5"/>
-      <c r="D691" s="9" t="s">
+      <c r="D691" s="7" t="s">
         <v>830</v>
       </c>
       <c r="E691" s="5"/>
@@ -25928,7 +25950,7 @@
         <v>831</v>
       </c>
       <c r="C692" s="5"/>
-      <c r="D692" s="9" t="s">
+      <c r="D692" s="7" t="s">
         <v>832</v>
       </c>
       <c r="E692" s="5"/>
@@ -25963,7 +25985,7 @@
         <v>833</v>
       </c>
       <c r="C693" s="5"/>
-      <c r="D693" s="9" t="s">
+      <c r="D693" s="7" t="s">
         <v>834</v>
       </c>
       <c r="E693" s="5"/>
@@ -25998,7 +26020,7 @@
         <v>835</v>
       </c>
       <c r="C694" s="5"/>
-      <c r="D694" s="9" t="s">
+      <c r="D694" s="7" t="s">
         <v>836</v>
       </c>
       <c r="E694" s="5"/>
@@ -26033,7 +26055,7 @@
         <v>837</v>
       </c>
       <c r="C695" s="5"/>
-      <c r="D695" s="9" t="s">
+      <c r="D695" s="7" t="s">
         <v>838</v>
       </c>
       <c r="E695" s="5"/>
@@ -26068,7 +26090,7 @@
         <v>839</v>
       </c>
       <c r="C696" s="5"/>
-      <c r="D696" s="9" t="s">
+      <c r="D696" s="7" t="s">
         <v>840</v>
       </c>
       <c r="E696" s="5"/>
@@ -26103,7 +26125,7 @@
         <v>841</v>
       </c>
       <c r="C697" s="5"/>
-      <c r="D697" s="9" t="s">
+      <c r="D697" s="7" t="s">
         <v>842</v>
       </c>
       <c r="E697" s="5"/>
@@ -26138,7 +26160,7 @@
         <v>843</v>
       </c>
       <c r="C698" s="5"/>
-      <c r="D698" s="9" t="s">
+      <c r="D698" s="7" t="s">
         <v>844</v>
       </c>
       <c r="E698" s="5"/>
@@ -26208,7 +26230,7 @@
         <v>846</v>
       </c>
       <c r="C700" s="5"/>
-      <c r="D700" s="9" t="s">
+      <c r="D700" s="7" t="s">
         <v>847</v>
       </c>
       <c r="E700" s="5"/>
@@ -26243,7 +26265,7 @@
         <v>848</v>
       </c>
       <c r="C701" s="5"/>
-      <c r="D701" s="9" t="s">
+      <c r="D701" s="7" t="s">
         <v>849</v>
       </c>
       <c r="E701" s="5"/>
@@ -26278,7 +26300,7 @@
         <v>850</v>
       </c>
       <c r="C702" s="5"/>
-      <c r="D702" s="9" t="s">
+      <c r="D702" s="7" t="s">
         <v>851</v>
       </c>
       <c r="E702" s="5"/>
@@ -40073,8 +40095,9 @@
     <hyperlink ref="D700" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
     <hyperlink ref="D701" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
     <hyperlink ref="D702" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C132" r:id="rId205" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{001D03AC-2346-451E-84F0-EE2C03988930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId205"/>
+  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId206"/>
 </worksheet>
 </file>